--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="4845" windowWidth="14895" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" windowHeight="4845" windowWidth="14895" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="BOPIS_TestData" r:id="rId1" sheetId="1"/>
@@ -13,7 +13,6 @@
     <sheet name="BackUp" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J14"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -61,16 +60,13 @@
     <t>Ship To Address</t>
   </si>
   <si>
-    <t>88019028</t>
-  </si>
-  <si>
-    <t>88019054</t>
-  </si>
-  <si>
-    <t>88019223</t>
-  </si>
-  <si>
-    <t>88019253</t>
+    <t>88019547</t>
+  </si>
+  <si>
+    <t>88019887</t>
+  </si>
+  <si>
+    <t>88020011</t>
   </si>
 </sst>
 </file>
@@ -441,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +541,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +654,9 @@
         <v>18052</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -667,10 +665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,74 +723,8 @@
         <v>89109</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>21331512</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>83</v>
-      </c>
-      <c r="F3" s="3">
-        <v>89109</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>24561648</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>83</v>
-      </c>
-      <c r="F4" s="3">
-        <v>89109</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20139223</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>83</v>
-      </c>
-      <c r="F5" s="3">
-        <v>89109</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +735,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="A4" sqref="A4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +816,74 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>21331512</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3">
+        <v>89109</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>24561648</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3">
+        <v>89109</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20139223</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3">
+        <v>89109</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>88019054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4845" windowWidth="14895" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="4845"/>
   </bookViews>
   <sheets>
-    <sheet name="BOPIS_TestData" r:id="rId1" sheetId="1"/>
-    <sheet name="SFS_TestData" r:id="rId2" sheetId="2"/>
-    <sheet name="STS_TestData" r:id="rId3" sheetId="3"/>
-    <sheet name="BackUp" r:id="rId4" sheetId="4"/>
+    <sheet name="BOPIS_TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="SFS_TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="STS_TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="BackUp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Ship To Address</t>
-  </si>
-  <si>
-    <t>88019547</t>
   </si>
   <si>
     <t>88019887</t>
@@ -73,7 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,24 +139,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -177,10 +173,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -215,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -344,21 +340,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -375,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -427,27 +423,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="3" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -476,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -498,70 +494,24 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>21331512</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>558</v>
-      </c>
-      <c r="F3" s="3">
-        <v>18052</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>24561648</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>558</v>
-      </c>
-      <c r="F4" s="3">
-        <v>18052</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="H4" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,7 +548,7 @@
         <v>34174229</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -612,69 +562,23 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>24561648</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>558</v>
-      </c>
-      <c r="F3" s="3">
-        <v>18052</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20139223</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
-        <v>558</v>
-      </c>
-      <c r="F4" s="3">
-        <v>18052</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,26 +628,26 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,7 +788,53 @@
         <v>88019054</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24561648</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>558</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18052</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20139223</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>558</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18052</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="4845"/>
+    <workbookView windowHeight="4845" windowWidth="14895" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BOPIS_TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="SFS_TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="STS_TestData" sheetId="3" r:id="rId3"/>
-    <sheet name="BackUp" sheetId="4" r:id="rId4"/>
+    <sheet name="BOPIS_TestData" r:id="rId1" sheetId="1"/>
+    <sheet name="SFS_TestData" r:id="rId2" sheetId="2"/>
+    <sheet name="STS_TestData" r:id="rId3" sheetId="3"/>
+    <sheet name="BackUp" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -64,12 +64,16 @@
   </si>
   <si>
     <t>88020011</t>
+  </si>
+  <si>
+    <t>88020830</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,24 +143,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -211,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -246,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -340,21 +344,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -371,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -423,14 +427,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -439,11 +443,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -472,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -495,13 +499,13 @@
       <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -510,8 +514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -563,12 +567,12 @@
       <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -577,8 +581,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,17 +632,17 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,7 +651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,6 +839,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>